--- a/data/fact_data/Jalna/Jalna_Aug_19.xlsx
+++ b/data/fact_data/Jalna/Jalna_Aug_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/Jalna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C102C6-FD8A-2141-A3A5-190EE2E1D02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E6A116-8B74-164E-8DB4-EDDC2546563C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,9 @@
     <sheet name="Shivkrupa_Aug_19" sheetId="5" r:id="rId3"/>
     <sheet name="Shrikrupa_Aug_19" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Shivkrupa_Aug_19!$A$1:$I$70</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="87">
   <si>
     <t>Betadine Vag. Tab 10's</t>
   </si>
@@ -122,9 +125,6 @@
   </si>
   <si>
     <t>Shivkrupa</t>
-  </si>
-  <si>
-    <t>MYOSPAS F TAB 5*10</t>
   </si>
   <si>
     <t>unit_price</t>
@@ -290,6 +290,15 @@
   </si>
   <si>
     <t>inv</t>
+  </si>
+  <si>
+    <t>Betadine Ointment 5%  25 gm</t>
+  </si>
+  <si>
+    <t>Betadine Ointment 10%  15 gm</t>
+  </si>
+  <si>
+    <t>Myospas F Tab 5*10</t>
   </si>
 </sst>
 </file>
@@ -1772,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1783,36 +1792,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18">
       <c r="A1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -1827,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="4">
         <v>19</v>
@@ -1836,12 +1845,12 @@
         <v>27</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2">
         <v>11</v>
@@ -1856,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" s="4">
         <v>19</v>
@@ -1865,12 +1874,12 @@
         <v>27</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1885,7 +1894,7 @@
         <v>546</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="4">
         <v>19</v>
@@ -1894,12 +1903,12 @@
         <v>27</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -1914,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="4">
         <v>19</v>
@@ -1923,12 +1932,12 @@
         <v>27</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -1943,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="4">
         <v>19</v>
@@ -1952,12 +1961,12 @@
         <v>27</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -1972,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="4">
         <v>19</v>
@@ -1981,7 +1990,7 @@
         <v>27</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18">
@@ -2001,7 +2010,7 @@
         <v>440</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="4">
         <v>19</v>
@@ -2010,7 +2019,7 @@
         <v>27</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18">
@@ -2030,7 +2039,7 @@
         <v>1368</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="4">
         <v>19</v>
@@ -2039,7 +2048,7 @@
         <v>27</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18">
@@ -2059,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="4">
         <v>19</v>
@@ -2068,12 +2077,12 @@
         <v>27</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -2088,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="4">
         <v>19</v>
@@ -2097,12 +2106,12 @@
         <v>27</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2">
         <v>107</v>
@@ -2117,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="4">
         <v>19</v>
@@ -2126,7 +2135,7 @@
         <v>27</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18">
@@ -2146,7 +2155,7 @@
         <v>5612</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="4">
         <v>19</v>
@@ -2155,7 +2164,7 @@
         <v>27</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18">
@@ -2175,7 +2184,7 @@
         <v>1560</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="4">
         <v>19</v>
@@ -2184,7 +2193,7 @@
         <v>27</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18">
@@ -2204,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="4">
         <v>19</v>
@@ -2213,12 +2222,12 @@
         <v>27</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2">
         <v>54</v>
@@ -2231,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="4">
         <v>19</v>
@@ -2240,12 +2249,12 @@
         <v>27</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2">
         <v>61</v>
@@ -2260,7 +2269,7 @@
         <v>3080</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" s="4">
         <v>19</v>
@@ -2269,12 +2278,12 @@
         <v>27</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -2289,7 +2298,7 @@
         <v>3773</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="4">
         <v>19</v>
@@ -2298,12 +2307,12 @@
         <v>27</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -2318,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" s="4">
         <v>19</v>
@@ -2327,12 +2336,12 @@
         <v>27</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -2347,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" s="4">
         <v>19</v>
@@ -2356,7 +2365,7 @@
         <v>27</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18">
@@ -2372,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" s="4">
         <v>19</v>
@@ -2381,12 +2390,12 @@
         <v>27</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18">
       <c r="A22" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2">
         <v>7</v>
@@ -2399,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" s="4">
         <v>19</v>
@@ -2408,7 +2417,7 @@
         <v>27</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18">
@@ -2428,7 +2437,7 @@
         <v>3828</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="4">
         <v>19</v>
@@ -2437,12 +2446,12 @@
         <v>27</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18">
       <c r="A24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2">
         <v>9</v>
@@ -2457,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24" s="4">
         <v>19</v>
@@ -2466,7 +2475,7 @@
         <v>27</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18">
@@ -2486,7 +2495,7 @@
         <v>2400</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" s="4">
         <v>19</v>
@@ -2495,12 +2504,12 @@
         <v>27</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18">
       <c r="A26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -2515,7 +2524,7 @@
         <v>3840</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" s="4">
         <v>19</v>
@@ -2524,12 +2533,12 @@
         <v>27</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -2544,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" s="4">
         <v>19</v>
@@ -2553,12 +2562,12 @@
         <v>27</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
@@ -2573,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" s="4">
         <v>19</v>
@@ -2582,12 +2591,12 @@
         <v>27</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -2602,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="4">
         <v>19</v>
@@ -2611,7 +2620,7 @@
         <v>27</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18">
@@ -2631,7 +2640,7 @@
         <v>360</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="4">
         <v>19</v>
@@ -2640,12 +2649,12 @@
         <v>27</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -2660,7 +2669,7 @@
         <v>633</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="4">
         <v>19</v>
@@ -2669,7 +2678,7 @@
         <v>27</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18">
@@ -2689,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" s="4">
         <v>19</v>
@@ -2698,7 +2707,7 @@
         <v>27</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18">
@@ -2718,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" s="4">
         <v>19</v>
@@ -2727,12 +2736,12 @@
         <v>27</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18">
       <c r="A34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2743,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" s="4">
         <v>19</v>
@@ -2752,12 +2761,12 @@
         <v>27</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18">
       <c r="A35" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -2770,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" s="4">
         <v>19</v>
@@ -2779,12 +2788,12 @@
         <v>27</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18">
       <c r="A36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -2799,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" s="4">
         <v>19</v>
@@ -2808,7 +2817,7 @@
         <v>27</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18">
@@ -2828,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G37" s="4">
         <v>19</v>
@@ -2837,12 +2846,12 @@
         <v>27</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18">
       <c r="A38" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="2">
         <v>8</v>
@@ -2857,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38" s="4">
         <v>19</v>
@@ -2866,12 +2875,12 @@
         <v>27</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18">
       <c r="A39" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -2886,7 +2895,7 @@
         <v>168</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" s="4">
         <v>19</v>
@@ -2895,12 +2904,12 @@
         <v>27</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18">
       <c r="A40" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -2915,7 +2924,7 @@
         <v>1287</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G40" s="4">
         <v>19</v>
@@ -2924,12 +2933,12 @@
         <v>27</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18">
       <c r="A41" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -2944,7 +2953,7 @@
         <v>5432</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41" s="4">
         <v>19</v>
@@ -2953,7 +2962,7 @@
         <v>27</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18">
@@ -2973,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G42" s="4">
         <v>19</v>
@@ -2982,7 +2991,7 @@
         <v>27</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18">
@@ -3002,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" s="4">
         <v>19</v>
@@ -3011,7 +3020,7 @@
         <v>27</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18">
@@ -3027,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G44" s="4">
         <v>19</v>
@@ -3036,12 +3045,12 @@
         <v>27</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18">
       <c r="A45" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -3054,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" s="4">
         <v>19</v>
@@ -3063,12 +3072,12 @@
         <v>27</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18">
       <c r="A46" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -3083,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G46" s="4">
         <v>19</v>
@@ -3092,7 +3101,7 @@
         <v>27</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18">
@@ -3112,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" s="4">
         <v>19</v>
@@ -3121,7 +3130,7 @@
         <v>27</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18">
@@ -3141,7 +3150,7 @@
         <v>446</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G48" s="4">
         <v>19</v>
@@ -3150,7 +3159,7 @@
         <v>27</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18">
@@ -3166,7 +3175,7 @@
         <v>968</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G49" s="4">
         <v>19</v>
@@ -3175,7 +3184,7 @@
         <v>27</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18">
@@ -3193,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G50" s="4">
         <v>19</v>
@@ -3202,12 +3211,12 @@
         <v>27</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18">
       <c r="A51" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3218,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G51" s="4">
         <v>19</v>
@@ -3227,12 +3236,12 @@
         <v>27</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="18">
       <c r="A52" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
@@ -3245,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G52" s="4">
         <v>19</v>
@@ -3254,12 +3263,12 @@
         <v>27</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18">
       <c r="A53" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3270,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G53" s="4">
         <v>19</v>
@@ -3279,12 +3288,12 @@
         <v>27</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="18">
       <c r="A54" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
@@ -3297,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G54" s="4">
         <v>19</v>
@@ -3306,12 +3315,12 @@
         <v>27</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18">
       <c r="A55" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3320,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G55" s="4">
         <v>19</v>
@@ -3329,12 +3338,12 @@
         <v>27</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18">
       <c r="A56" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -3347,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G56" s="4">
         <v>19</v>
@@ -3356,12 +3365,12 @@
         <v>27</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="18">
       <c r="A57" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" s="2">
         <v>0</v>
@@ -3376,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G57" s="4">
         <v>19</v>
@@ -3385,12 +3394,12 @@
         <v>27</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="18">
       <c r="A58" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" s="2">
         <v>0</v>
@@ -3405,7 +3414,7 @@
         <v>336</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G58" s="4">
         <v>19</v>
@@ -3414,12 +3423,12 @@
         <v>27</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="18">
       <c r="A59" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="2">
         <v>0</v>
@@ -3434,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G59" s="4">
         <v>19</v>
@@ -3443,12 +3452,12 @@
         <v>27</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3459,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G60" s="4">
         <v>19</v>
@@ -3468,7 +3477,7 @@
         <v>27</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="18">
@@ -3486,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G61" s="4">
         <v>19</v>
@@ -3495,12 +3504,12 @@
         <v>27</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="18">
       <c r="A62" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -3515,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G62" s="4">
         <v>19</v>
@@ -3524,12 +3533,12 @@
         <v>27</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="18">
       <c r="A63" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
@@ -3544,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G63" s="4">
         <v>19</v>
@@ -3553,12 +3562,12 @@
         <v>27</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3569,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G64" s="4">
         <v>19</v>
@@ -3578,7 +3587,7 @@
         <v>27</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="18">
@@ -3596,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G65" s="4">
         <v>19</v>
@@ -3605,12 +3614,12 @@
         <v>27</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="18">
       <c r="A66" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2">
         <v>0</v>
@@ -3625,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G66" s="4">
         <v>19</v>
@@ -3634,7 +3643,7 @@
         <v>27</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="18">
@@ -3652,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G67" s="4">
         <v>19</v>
@@ -3661,7 +3670,7 @@
         <v>27</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="18">
@@ -3681,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G68" s="4">
         <v>19</v>
@@ -3690,7 +3699,7 @@
         <v>27</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="18">
@@ -3706,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G69" s="4">
         <v>19</v>
@@ -3715,7 +3724,7 @@
         <v>27</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="18">
@@ -3731,7 +3740,7 @@
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G70" s="4">
         <v>19</v>
@@ -3740,12 +3749,12 @@
         <v>27</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="18">
-      <c r="A71" s="4" t="s">
-        <v>29</v>
+      <c r="A71" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -3761,7 +3770,7 @@
         <v>240</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G71" s="4">
         <v>19</v>
@@ -3770,7 +3779,7 @@
         <v>27</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3797,8 +3806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3808,36 +3817,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18">
       <c r="A1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -3852,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="4">
         <v>19</v>
@@ -3861,12 +3870,12 @@
         <v>26</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -3881,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" s="4">
         <v>19</v>
@@ -3890,12 +3899,12 @@
         <v>26</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2">
         <v>58</v>
@@ -3910,7 +3919,7 @@
         <v>546</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="4">
         <v>19</v>
@@ -3919,12 +3928,12 @@
         <v>26</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -3939,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="4">
         <v>19</v>
@@ -3948,12 +3957,12 @@
         <v>26</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -3968,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="4">
         <v>19</v>
@@ -3977,12 +3986,12 @@
         <v>26</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -3997,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="4">
         <v>19</v>
@@ -4006,7 +4015,7 @@
         <v>26</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18">
@@ -4026,7 +4035,7 @@
         <v>440</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="4">
         <v>19</v>
@@ -4035,7 +4044,7 @@
         <v>26</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18">
@@ -4055,7 +4064,7 @@
         <v>1368</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="4">
         <v>19</v>
@@ -4064,7 +4073,7 @@
         <v>26</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18">
@@ -4084,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="4">
         <v>19</v>
@@ -4093,12 +4102,12 @@
         <v>26</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -4113,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="4">
         <v>19</v>
@@ -4122,12 +4131,12 @@
         <v>26</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -4142,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="4">
         <v>19</v>
@@ -4151,7 +4160,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18">
@@ -4171,7 +4180,7 @@
         <v>5612</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="4">
         <v>19</v>
@@ -4180,7 +4189,7 @@
         <v>26</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18">
@@ -4200,7 +4209,7 @@
         <v>1560</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="4">
         <v>19</v>
@@ -4209,7 +4218,7 @@
         <v>26</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18">
@@ -4229,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="4">
         <v>19</v>
@@ -4238,12 +4247,12 @@
         <v>26</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2">
         <v>331</v>
@@ -4256,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="4">
         <v>19</v>
@@ -4265,12 +4274,12 @@
         <v>26</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2">
         <v>75</v>
@@ -4285,7 +4294,7 @@
         <v>3080</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" s="4">
         <v>19</v>
@@ -4294,12 +4303,12 @@
         <v>26</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2">
         <v>154</v>
@@ -4314,7 +4323,7 @@
         <v>3773</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="4">
         <v>19</v>
@@ -4323,12 +4332,12 @@
         <v>26</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -4343,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" s="4">
         <v>19</v>
@@ -4352,12 +4361,12 @@
         <v>26</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -4372,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" s="4">
         <v>19</v>
@@ -4381,7 +4390,7 @@
         <v>26</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18">
@@ -4401,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" s="4">
         <v>19</v>
@@ -4410,12 +4419,12 @@
         <v>26</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18">
       <c r="A22" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4424,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" s="4">
         <v>19</v>
@@ -4433,7 +4442,7 @@
         <v>26</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18">
@@ -4453,7 +4462,7 @@
         <v>3828</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="4">
         <v>19</v>
@@ -4462,12 +4471,12 @@
         <v>26</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18">
       <c r="A24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -4482,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24" s="4">
         <v>19</v>
@@ -4491,7 +4500,7 @@
         <v>26</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18">
@@ -4511,7 +4520,7 @@
         <v>2400</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" s="4">
         <v>19</v>
@@ -4520,12 +4529,12 @@
         <v>26</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18">
       <c r="A26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2">
         <v>23</v>
@@ -4540,7 +4549,7 @@
         <v>3840</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" s="4">
         <v>19</v>
@@ -4549,12 +4558,12 @@
         <v>26</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -4569,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" s="4">
         <v>19</v>
@@ -4578,12 +4587,12 @@
         <v>26</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -4598,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" s="4">
         <v>19</v>
@@ -4607,12 +4616,12 @@
         <v>26</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2">
         <v>7</v>
@@ -4627,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="4">
         <v>19</v>
@@ -4636,7 +4645,7 @@
         <v>26</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18">
@@ -4656,7 +4665,7 @@
         <v>360</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="4">
         <v>19</v>
@@ -4665,12 +4674,12 @@
         <v>26</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -4685,7 +4694,7 @@
         <v>633</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="4">
         <v>19</v>
@@ -4694,7 +4703,7 @@
         <v>26</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18">
@@ -4714,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" s="4">
         <v>19</v>
@@ -4723,7 +4732,7 @@
         <v>26</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18">
@@ -4743,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" s="4">
         <v>19</v>
@@ -4752,12 +4761,12 @@
         <v>26</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18">
       <c r="A34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -4772,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" s="4">
         <v>19</v>
@@ -4781,19 +4790,19 @@
         <v>26</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18">
       <c r="A35" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4">
         <v>0</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" s="4">
         <v>19</v>
@@ -4802,12 +4811,12 @@
         <v>26</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18">
       <c r="A36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="2">
         <v>3</v>
@@ -4822,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" s="4">
         <v>19</v>
@@ -4831,7 +4840,7 @@
         <v>26</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18">
@@ -4851,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G37" s="4">
         <v>19</v>
@@ -4860,12 +4869,12 @@
         <v>26</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18">
       <c r="A38" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="2">
         <v>3</v>
@@ -4880,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38" s="4">
         <v>19</v>
@@ -4889,12 +4898,12 @@
         <v>26</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18">
       <c r="A39" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="2">
         <v>21</v>
@@ -4909,7 +4918,7 @@
         <v>168</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" s="4">
         <v>19</v>
@@ -4918,12 +4927,12 @@
         <v>26</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18">
       <c r="A40" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -4938,7 +4947,7 @@
         <v>1287</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G40" s="4">
         <v>19</v>
@@ -4947,12 +4956,12 @@
         <v>26</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18">
       <c r="A41" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -4967,7 +4976,7 @@
         <v>5432</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41" s="4">
         <v>19</v>
@@ -4976,7 +4985,7 @@
         <v>26</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18">
@@ -4996,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G42" s="4">
         <v>19</v>
@@ -5005,7 +5014,7 @@
         <v>26</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18">
@@ -5025,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" s="4">
         <v>19</v>
@@ -5034,7 +5043,7 @@
         <v>26</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18">
@@ -5054,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G44" s="4">
         <v>19</v>
@@ -5063,12 +5072,12 @@
         <v>26</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18">
       <c r="A45" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -5081,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" s="4">
         <v>19</v>
@@ -5090,12 +5099,12 @@
         <v>26</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18">
       <c r="A46" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -5110,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G46" s="4">
         <v>19</v>
@@ -5119,7 +5128,7 @@
         <v>26</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18">
@@ -5139,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" s="4">
         <v>19</v>
@@ -5148,7 +5157,7 @@
         <v>26</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18">
@@ -5168,7 +5177,7 @@
         <v>446</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G48" s="4">
         <v>19</v>
@@ -5177,7 +5186,7 @@
         <v>26</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18">
@@ -5197,7 +5206,7 @@
         <v>968</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G49" s="4">
         <v>19</v>
@@ -5206,7 +5215,7 @@
         <v>26</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18">
@@ -5224,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G50" s="4">
         <v>19</v>
@@ -5233,12 +5242,12 @@
         <v>26</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18">
       <c r="A51" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="2">
         <v>8</v>
@@ -5253,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G51" s="4">
         <v>19</v>
@@ -5262,12 +5271,12 @@
         <v>26</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="18">
       <c r="A52" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -5276,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G52" s="4">
         <v>19</v>
@@ -5285,12 +5294,12 @@
         <v>26</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18">
       <c r="A53" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="2">
         <v>6</v>
@@ -5305,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G53" s="4">
         <v>19</v>
@@ -5314,12 +5323,12 @@
         <v>26</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="18">
       <c r="A54" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -5328,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G54" s="4">
         <v>19</v>
@@ -5337,12 +5346,12 @@
         <v>26</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18">
       <c r="A55" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -5355,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G55" s="4">
         <v>19</v>
@@ -5364,12 +5373,12 @@
         <v>26</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18">
       <c r="A56" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -5378,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G56" s="4">
         <v>19</v>
@@ -5387,12 +5396,12 @@
         <v>26</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="18">
       <c r="A57" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" s="2">
         <v>0</v>
@@ -5407,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G57" s="4">
         <v>19</v>
@@ -5416,12 +5425,12 @@
         <v>26</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="18">
       <c r="A58" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" s="2">
         <v>0</v>
@@ -5436,7 +5445,7 @@
         <v>336</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G58" s="4">
         <v>19</v>
@@ -5445,12 +5454,12 @@
         <v>26</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="18">
       <c r="A59" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="2">
         <v>0</v>
@@ -5465,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G59" s="4">
         <v>19</v>
@@ -5474,12 +5483,12 @@
         <v>26</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="18">
       <c r="A60" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2">
         <v>0</v>
@@ -5494,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G60" s="4">
         <v>19</v>
@@ -5503,7 +5512,7 @@
         <v>26</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -5517,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G61" s="4">
         <v>19</v>
@@ -5526,12 +5535,12 @@
         <v>26</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="18">
       <c r="A62" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="2">
         <v>0</v>
@@ -5546,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G62" s="4">
         <v>19</v>
@@ -5555,12 +5564,12 @@
         <v>26</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="18">
       <c r="A63" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63" s="2">
         <v>0</v>
@@ -5575,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G63" s="4">
         <v>19</v>
@@ -5584,12 +5593,12 @@
         <v>26</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="18">
       <c r="A64" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" s="2">
         <v>0</v>
@@ -5604,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G64" s="4">
         <v>19</v>
@@ -5613,7 +5622,7 @@
         <v>26</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5627,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G65" s="4">
         <v>19</v>
@@ -5636,12 +5645,12 @@
         <v>26</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="18">
       <c r="A66" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2">
         <v>7</v>
@@ -5656,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G66" s="4">
         <v>19</v>
@@ -5665,7 +5674,7 @@
         <v>26</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="18">
@@ -5683,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G67" s="4">
         <v>19</v>
@@ -5692,7 +5701,7 @@
         <v>26</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="18">
@@ -5712,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G68" s="4">
         <v>19</v>
@@ -5721,7 +5730,7 @@
         <v>26</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="18">
@@ -5741,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G69" s="4">
         <v>19</v>
@@ -5750,7 +5759,7 @@
         <v>26</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="18">
@@ -5762,7 +5771,7 @@
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G70" s="4">
         <v>19</v>
@@ -5771,12 +5780,12 @@
         <v>26</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="18">
-      <c r="A71" s="4" t="s">
-        <v>29</v>
+      <c r="A71" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B71" s="5">
         <v>0</v>
@@ -5792,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G71" s="4">
         <v>19</v>
@@ -5801,7 +5810,7 @@
         <v>26</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5814,8 +5823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5825,36 +5834,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18">
       <c r="A1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -5869,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="4">
         <v>19</v>
@@ -5878,12 +5887,12 @@
         <v>28</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -5898,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" s="4">
         <v>19</v>
@@ -5907,12 +5916,12 @@
         <v>28</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -5927,7 +5936,7 @@
         <v>546</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="4">
         <v>19</v>
@@ -5936,12 +5945,12 @@
         <v>28</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -5956,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="4">
         <v>19</v>
@@ -5965,12 +5974,12 @@
         <v>28</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -5985,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="4">
         <v>19</v>
@@ -5994,12 +6003,12 @@
         <v>28</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -6014,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="4">
         <v>19</v>
@@ -6023,7 +6032,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18">
@@ -6043,7 +6052,7 @@
         <v>440</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="4">
         <v>19</v>
@@ -6052,7 +6061,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18">
@@ -6072,7 +6081,7 @@
         <v>1368</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="4">
         <v>19</v>
@@ -6081,7 +6090,7 @@
         <v>28</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18">
@@ -6101,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="4">
         <v>19</v>
@@ -6110,12 +6119,12 @@
         <v>28</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -6130,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="4">
         <v>19</v>
@@ -6139,12 +6148,12 @@
         <v>28</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -6159,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="4">
         <v>19</v>
@@ -6168,7 +6177,7 @@
         <v>28</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18">
@@ -6188,7 +6197,7 @@
         <v>5612</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="4">
         <v>19</v>
@@ -6197,7 +6206,7 @@
         <v>28</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18">
@@ -6217,7 +6226,7 @@
         <v>1560</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="4">
         <v>19</v>
@@ -6226,7 +6235,7 @@
         <v>28</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18">
@@ -6246,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="4">
         <v>19</v>
@@ -6255,12 +6264,12 @@
         <v>28</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B16" s="4">
         <v>55</v>
@@ -6273,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="4">
         <v>19</v>
@@ -6282,12 +6291,12 @@
         <v>28</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B17" s="4">
         <v>40</v>
@@ -6302,7 +6311,7 @@
         <v>3080</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" s="4">
         <v>19</v>
@@ -6311,12 +6320,12 @@
         <v>28</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="4">
         <v>39</v>
@@ -6331,7 +6340,7 @@
         <v>3773</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="4">
         <v>19</v>
@@ -6340,12 +6349,12 @@
         <v>28</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -6360,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" s="4">
         <v>19</v>
@@ -6369,12 +6378,12 @@
         <v>28</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -6389,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" s="4">
         <v>19</v>
@@ -6398,7 +6407,7 @@
         <v>28</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18">
@@ -6418,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" s="4">
         <v>19</v>
@@ -6427,12 +6436,12 @@
         <v>28</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18">
       <c r="A22" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -6441,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" s="4">
         <v>19</v>
@@ -6450,7 +6459,7 @@
         <v>28</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18">
@@ -6470,7 +6479,7 @@
         <v>3828</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="4">
         <v>19</v>
@@ -6479,12 +6488,12 @@
         <v>28</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18">
       <c r="A24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -6499,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G24" s="4">
         <v>19</v>
@@ -6508,7 +6517,7 @@
         <v>28</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18">
@@ -6528,7 +6537,7 @@
         <v>2400</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" s="4">
         <v>19</v>
@@ -6537,12 +6546,12 @@
         <v>28</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18">
       <c r="A26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="4">
         <v>6</v>
@@ -6557,7 +6566,7 @@
         <v>3840</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G26" s="4">
         <v>19</v>
@@ -6566,12 +6575,12 @@
         <v>28</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -6584,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" s="4">
         <v>19</v>
@@ -6593,12 +6602,12 @@
         <v>28</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
@@ -6613,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" s="4">
         <v>19</v>
@@ -6622,12 +6631,12 @@
         <v>28</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
@@ -6642,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="4">
         <v>19</v>
@@ -6651,7 +6660,7 @@
         <v>28</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18">
@@ -6671,7 +6680,7 @@
         <v>360</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="4">
         <v>19</v>
@@ -6680,12 +6689,12 @@
         <v>28</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
@@ -6700,7 +6709,7 @@
         <v>633</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="4">
         <v>19</v>
@@ -6709,7 +6718,7 @@
         <v>28</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18">
@@ -6729,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" s="4">
         <v>19</v>
@@ -6738,7 +6747,7 @@
         <v>28</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18">
@@ -6758,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" s="4">
         <v>19</v>
@@ -6767,12 +6776,12 @@
         <v>28</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18">
       <c r="A34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
@@ -6787,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" s="4">
         <v>19</v>
@@ -6796,39 +6805,23 @@
         <v>28</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18">
-      <c r="A35" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="4">
-        <v>2</v>
-      </c>
-      <c r="C35" s="4">
-        <v>1</v>
-      </c>
+      <c r="A35" s="6"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="4">
-        <v>19</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" ht="18">
       <c r="A36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -6839,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" s="4">
         <v>19</v>
@@ -6848,7 +6841,7 @@
         <v>28</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18">
@@ -6868,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G37" s="4">
         <v>19</v>
@@ -6877,12 +6870,12 @@
         <v>28</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18">
       <c r="A38" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
@@ -6897,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38" s="4">
         <v>19</v>
@@ -6906,12 +6899,12 @@
         <v>28</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18">
       <c r="A39" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="4">
         <v>0</v>
@@ -6926,7 +6919,7 @@
         <v>168</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" s="4">
         <v>19</v>
@@ -6935,12 +6928,12 @@
         <v>28</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18">
       <c r="A40" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="4">
         <v>8</v>
@@ -6955,7 +6948,7 @@
         <v>1287</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G40" s="4">
         <v>19</v>
@@ -6964,12 +6957,12 @@
         <v>28</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18">
       <c r="A41" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -6984,7 +6977,7 @@
         <v>5432</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41" s="4">
         <v>19</v>
@@ -6993,7 +6986,7 @@
         <v>28</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18">
@@ -7013,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G42" s="4">
         <v>19</v>
@@ -7022,7 +7015,7 @@
         <v>28</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18">
@@ -7042,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" s="4">
         <v>19</v>
@@ -7051,7 +7044,7 @@
         <v>28</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18">
@@ -7071,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G44" s="4">
         <v>19</v>
@@ -7080,12 +7073,12 @@
         <v>28</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18">
       <c r="A45" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="4">
         <v>0</v>
@@ -7098,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" s="4">
         <v>19</v>
@@ -7107,12 +7100,12 @@
         <v>28</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18">
       <c r="A46" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -7123,7 +7116,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G46" s="4">
         <v>19</v>
@@ -7132,7 +7125,7 @@
         <v>28</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18">
@@ -7152,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" s="4">
         <v>19</v>
@@ -7161,7 +7154,7 @@
         <v>28</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18">
@@ -7181,7 +7174,7 @@
         <v>446</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G48" s="4">
         <v>19</v>
@@ -7190,7 +7183,7 @@
         <v>28</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18">
@@ -7210,7 +7203,7 @@
         <v>968</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G49" s="4">
         <v>19</v>
@@ -7219,7 +7212,7 @@
         <v>28</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18">
@@ -7237,7 +7230,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G50" s="4">
         <v>19</v>
@@ -7246,12 +7239,12 @@
         <v>28</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18">
       <c r="A51" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -7262,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G51" s="4">
         <v>19</v>
@@ -7271,39 +7264,23 @@
         <v>28</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="18">
-      <c r="A52" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="4">
-        <v>2</v>
-      </c>
-      <c r="C52" s="4">
-        <v>5</v>
-      </c>
+      <c r="A52" s="6"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="4">
-        <v>0</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G52" s="4">
-        <v>19</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" ht="18">
       <c r="A53" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -7314,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G53" s="4">
         <v>19</v>
@@ -7323,12 +7300,12 @@
         <v>28</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="18">
       <c r="A54" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" s="4">
         <v>10</v>
@@ -7341,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G54" s="4">
         <v>19</v>
@@ -7350,12 +7327,12 @@
         <v>28</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18">
       <c r="A55" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -7364,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G55" s="4">
         <v>19</v>
@@ -7373,12 +7350,12 @@
         <v>28</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18">
       <c r="A56" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" s="4">
         <v>0</v>
@@ -7391,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G56" s="4">
         <v>19</v>
@@ -7400,12 +7377,12 @@
         <v>28</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -7416,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G57" s="4">
         <v>19</v>
@@ -7425,12 +7402,12 @@
         <v>28</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" s="4">
         <v>1</v>
@@ -7445,7 +7422,7 @@
         <v>336</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G58" s="4">
         <v>19</v>
@@ -7454,12 +7431,12 @@
         <v>28</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="4">
         <v>0</v>
@@ -7474,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G59" s="4">
         <v>19</v>
@@ -7483,12 +7460,12 @@
         <v>28</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" s="4">
         <v>0</v>
@@ -7503,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G60" s="4">
         <v>19</v>
@@ -7512,39 +7489,23 @@
         <v>28</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" s="4">
-        <v>2</v>
-      </c>
-      <c r="C61" s="4">
-        <v>1</v>
-      </c>
+      <c r="A61" s="7"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G61" s="4">
-        <v>19</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -7555,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G62" s="4">
         <v>19</v>
@@ -7564,12 +7525,12 @@
         <v>28</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -7580,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G63" s="4">
         <v>19</v>
@@ -7589,12 +7550,12 @@
         <v>28</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" s="4">
         <v>0</v>
@@ -7609,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G64" s="4">
         <v>19</v>
@@ -7618,7 +7579,7 @@
         <v>28</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -7636,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G65" s="4">
         <v>19</v>
@@ -7645,12 +7606,12 @@
         <v>28</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="18">
       <c r="A66" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B66" s="4">
         <v>0</v>
@@ -7665,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G66" s="4">
         <v>19</v>
@@ -7674,7 +7635,7 @@
         <v>28</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="18">
@@ -7692,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G67" s="4">
         <v>19</v>
@@ -7701,7 +7662,7 @@
         <v>28</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="18">
@@ -7721,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G68" s="4">
         <v>19</v>
@@ -7730,7 +7691,7 @@
         <v>28</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="18">
@@ -7750,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G69" s="4">
         <v>19</v>
@@ -7759,7 +7720,7 @@
         <v>28</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="18">
@@ -7775,7 +7736,7 @@
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G70" s="4">
         <v>19</v>
@@ -7784,28 +7745,27 @@
         <v>28</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="18">
-      <c r="A71" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B71" s="5">
+      <c r="A71" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="4">
         <v>3</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <v>5</v>
       </c>
       <c r="D71" s="4">
         <v>240</v>
       </c>
-      <c r="E71">
-        <f>B71*D71</f>
+      <c r="E71" s="4">
         <v>720</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G71" s="4">
         <v>19</v>
@@ -7814,10 +7774,11 @@
         <v>28</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I70" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7825,10 +7786,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -7838,36 +7799,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18">
       <c r="A1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -7882,21 +7843,21 @@
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="4">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="4">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -7911,21 +7872,21 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="4">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="4">
-        <v>19</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -7940,21 +7901,21 @@
         <v>546</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="4">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="4">
-        <v>19</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -7969,21 +7930,21 @@
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="4">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="4">
-        <v>19</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -7998,21 +7959,21 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="4">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="4">
-        <v>19</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -8027,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="4">
+        <v>19</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="4">
-        <v>19</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18">
@@ -8056,16 +8017,16 @@
         <v>440</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="4">
+        <v>19</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="4">
-        <v>19</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18">
@@ -8085,16 +8046,16 @@
         <v>1368</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="4">
+        <v>19</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="4">
-        <v>19</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18">
@@ -8114,21 +8075,21 @@
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="4">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="4">
-        <v>19</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -8143,21 +8104,21 @@
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="4">
+        <v>19</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="4">
-        <v>19</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -8172,16 +8133,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="4">
+        <v>19</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="4">
-        <v>19</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18">
@@ -8201,16 +8162,16 @@
         <v>5612</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="4">
+        <v>19</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="4">
-        <v>19</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18">
@@ -8230,16 +8191,16 @@
         <v>1560</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="4">
+        <v>19</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="4">
-        <v>19</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18">
@@ -8259,21 +8220,21 @@
         <v>0</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="4">
+        <v>19</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="4">
-        <v>19</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4">
         <v>55</v>
@@ -8286,21 +8247,21 @@
         <v>0</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="4">
+        <v>19</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="4">
-        <v>19</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="4">
         <v>40</v>
@@ -8315,21 +8276,21 @@
         <v>3080</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="4">
+        <v>19</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="4">
-        <v>19</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="4">
         <v>39</v>
@@ -8344,21 +8305,21 @@
         <v>3773</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="4">
+        <v>19</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="4">
-        <v>19</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -8373,21 +8334,21 @@
         <v>0</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="4">
+        <v>19</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="4">
-        <v>19</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -8402,16 +8363,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="4">
+        <v>19</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="4">
-        <v>19</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18">
@@ -8431,182 +8392,188 @@
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="4">
+        <v>19</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="4">
-        <v>19</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18">
-      <c r="A22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>638</v>
+      </c>
       <c r="E22" s="4">
-        <v>0</v>
+        <v>3828</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="4">
+        <v>19</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="4">
-        <v>19</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18">
       <c r="A23" s="3" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B23" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="4">
-        <v>638</v>
+        <v>68</v>
       </c>
       <c r="E23" s="4">
-        <v>3828</v>
+        <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="4">
+        <v>19</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="4">
-        <v>19</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18">
       <c r="A24" s="3" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B24" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C24" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="4">
-        <v>68</v>
+        <v>240</v>
       </c>
       <c r="E24" s="4">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="4">
+        <v>19</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="4">
-        <v>19</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18">
       <c r="A25" s="3" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B25" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
       </c>
       <c r="D25" s="4">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="E25" s="4">
-        <v>2400</v>
+        <v>3840</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="4">
+        <v>19</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="4">
-        <v>19</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18">
       <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="4">
-        <v>6</v>
-      </c>
+      <c r="B26" s="4"/>
       <c r="C26" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="4">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="E26" s="4">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="4">
+        <v>19</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G26" s="4">
-        <v>19</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
       <c r="C27" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" s="4">
-        <v>520</v>
+        <v>830</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="4">
+        <v>19</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="4">
-        <v>19</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18">
@@ -8620,143 +8587,143 @@
         <v>0</v>
       </c>
       <c r="D28" s="4">
-        <v>830</v>
+        <v>430</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="4">
+        <v>19</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="4">
-        <v>19</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B29" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D29" s="4">
-        <v>430</v>
+        <v>360</v>
       </c>
       <c r="E29" s="4">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="4">
+        <v>19</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="4">
-        <v>19</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18">
       <c r="A30" s="3" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B30" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D30" s="4">
-        <v>360</v>
+        <v>633</v>
       </c>
       <c r="E30" s="4">
-        <v>360</v>
+        <v>633</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="4">
+        <v>19</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="4">
-        <v>19</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18">
       <c r="A31" s="3" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
       </c>
       <c r="C31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="4">
-        <v>633</v>
+        <v>789</v>
       </c>
       <c r="E31" s="4">
-        <v>633</v>
+        <v>0</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="4">
+        <v>19</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G31" s="4">
-        <v>19</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18">
       <c r="A32" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
       </c>
       <c r="D32" s="4">
-        <v>789</v>
+        <v>865</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="4">
+        <v>19</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="4">
-        <v>19</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18">
       <c r="A33" s="3" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B33" s="4">
         <v>0</v>
@@ -8765,311 +8732,309 @@
         <v>0</v>
       </c>
       <c r="D33" s="4">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="4">
+        <v>19</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="4">
-        <v>19</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18">
       <c r="A34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="4">
-        <v>863</v>
+        <v>1136</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="4">
+        <v>19</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G34" s="4">
-        <v>19</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18">
-      <c r="A35" s="6" t="s">
-        <v>58</v>
+      <c r="A35" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B35" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="4">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1367</v>
+      </c>
       <c r="E35" s="4">
         <v>0</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="4">
+        <v>19</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G35" s="4">
-        <v>19</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18">
       <c r="A36" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
       <c r="D36" s="4">
-        <v>1136</v>
+        <v>955</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="4">
+        <v>19</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G36" s="4">
-        <v>19</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18">
       <c r="A37" s="3" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B37" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="4">
         <v>0</v>
       </c>
       <c r="D37" s="4">
-        <v>1367</v>
+        <v>168</v>
       </c>
       <c r="E37" s="4">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="4">
+        <v>19</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G37" s="4">
-        <v>19</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18">
       <c r="A38" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B38" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C38" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" s="4">
-        <v>955</v>
+        <v>1287</v>
       </c>
       <c r="E38" s="4">
-        <v>0</v>
+        <v>1287</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="4">
+        <v>19</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="4">
-        <v>19</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18">
       <c r="A39" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B39" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
       </c>
       <c r="D39" s="4">
-        <v>168</v>
+        <v>1358</v>
       </c>
       <c r="E39" s="4">
-        <v>168</v>
+        <v>5432</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="4">
+        <v>19</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="4">
-        <v>19</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18">
       <c r="A40" s="3" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B40" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C40" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D40" s="4">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="E40" s="4">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="4">
+        <v>19</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G40" s="4">
-        <v>19</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I40" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18">
       <c r="A41" s="3" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
       </c>
       <c r="D41" s="4">
-        <v>1358</v>
+        <v>1184</v>
       </c>
       <c r="E41" s="4">
-        <v>5432</v>
+        <v>0</v>
       </c>
       <c r="F41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="4">
+        <v>19</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="4">
-        <v>19</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I41" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18">
       <c r="A42" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B42" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="4">
         <v>0</v>
       </c>
       <c r="D42" s="4">
-        <v>1270</v>
+        <v>755</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="4">
+        <v>19</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="4">
-        <v>19</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I42" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18">
       <c r="A43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="4">
-        <v>0</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="4">
-        <v>1184</v>
+        <v>984</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="4">
+        <v>19</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="4">
-        <v>19</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I43" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="18">
       <c r="A44" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B44" s="4">
         <v>0</v>
@@ -9078,756 +9043,488 @@
         <v>0</v>
       </c>
       <c r="D44" s="4">
-        <v>755</v>
+        <v>157</v>
       </c>
       <c r="E44" s="4">
         <v>0</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="4">
+        <v>19</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G44" s="4">
-        <v>19</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18">
-      <c r="A45" s="6" t="s">
-        <v>64</v>
+      <c r="A45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B45" s="4">
         <v>0</v>
       </c>
       <c r="C45" s="4">
-        <v>1</v>
-      </c>
-      <c r="D45" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="D45" s="4">
+        <v>223</v>
+      </c>
       <c r="E45" s="4">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="4">
+        <v>19</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G45" s="4">
-        <v>19</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I45" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18">
       <c r="A46" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
       <c r="D46" s="4">
-        <v>984</v>
+        <v>484</v>
       </c>
       <c r="E46" s="4">
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="F46" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="4">
+        <v>19</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G46" s="4">
-        <v>19</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I46" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18">
       <c r="A47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="4">
-        <v>0</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <v>157</v>
+        <v>769</v>
       </c>
       <c r="E47" s="4">
         <v>0</v>
       </c>
       <c r="F47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="4">
+        <v>19</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="4">
-        <v>19</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18">
       <c r="A48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="4">
-        <v>0</v>
-      </c>
-      <c r="C48" s="4">
-        <v>2</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="4">
-        <v>223</v>
+        <v>155</v>
       </c>
       <c r="E48" s="4">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="4">
+        <v>19</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G48" s="4">
-        <v>19</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I48" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18">
       <c r="A49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="4">
-        <v>1</v>
-      </c>
-      <c r="C49" s="4">
-        <v>1</v>
-      </c>
-      <c r="D49" s="4">
-        <v>484</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="4">
-        <v>968</v>
+        <v>0</v>
       </c>
       <c r="F49" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="4">
+        <v>19</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G49" s="4">
-        <v>19</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I49" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18">
-      <c r="A50" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="4">
-        <v>0</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4"/>
+      <c r="A50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4">
+        <v>59</v>
+      </c>
       <c r="E50" s="4">
         <v>0</v>
       </c>
       <c r="F50" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="4">
+        <v>19</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G50" s="4">
-        <v>19</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I50" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18">
       <c r="A51" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4">
+        <v>3</v>
+      </c>
       <c r="D51" s="4">
-        <v>769</v>
+        <v>112</v>
       </c>
       <c r="E51" s="4">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="F51" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" s="4">
+        <v>19</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G51" s="4">
-        <v>19</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I51" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="18">
-      <c r="A52" s="6" t="s">
-        <v>67</v>
+      <c r="A52" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B52" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C52" s="4">
-        <v>5</v>
-      </c>
-      <c r="D52" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>225</v>
+      </c>
       <c r="E52" s="4">
         <v>0</v>
       </c>
       <c r="F52" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="4">
+        <v>19</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G52" s="4">
-        <v>19</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I52" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18">
       <c r="A53" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+      <c r="C53" s="4">
+        <v>11</v>
+      </c>
       <c r="D53" s="4">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="E53" s="4">
         <v>0</v>
       </c>
       <c r="F53" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="4">
+        <v>19</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G53" s="4">
-        <v>19</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I53" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="18">
-      <c r="A54" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="4">
-        <v>10</v>
-      </c>
-      <c r="C54" s="4">
-        <v>1</v>
-      </c>
-      <c r="D54" s="4"/>
+      <c r="A54" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4">
+        <v>80</v>
+      </c>
       <c r="E54" s="4">
         <v>0</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="4">
+        <v>19</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G54" s="4">
-        <v>19</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I54" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18">
       <c r="A55" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="D55" s="4">
+        <v>125</v>
+      </c>
       <c r="E55" s="4">
         <v>0</v>
       </c>
       <c r="F55" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="4">
+        <v>19</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G55" s="4">
-        <v>19</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I55" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18">
-      <c r="A56" s="6" t="s">
-        <v>71</v>
+      <c r="A56" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="B56" s="4">
         <v>0</v>
       </c>
       <c r="C56" s="4">
-        <v>2</v>
-      </c>
-      <c r="D56" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D56" s="4">
+        <v>127</v>
+      </c>
       <c r="E56" s="4">
         <v>0</v>
       </c>
       <c r="F56" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="4">
+        <v>19</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G56" s="4">
-        <v>19</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I56" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="18">
+      <c r="A57" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
       <c r="D57" s="4">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E57" s="4">
         <v>0</v>
       </c>
       <c r="F57" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="4">
+        <v>19</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G57" s="4">
-        <v>19</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I57" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="4" t="s">
-        <v>73</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="18">
+      <c r="A58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B58" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="4">
+        <v>0</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" s="4">
+        <v>19</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="18">
+      <c r="A59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <v>48</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" s="4">
+        <v>19</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="18">
+      <c r="A60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4">
+        <v>170</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" s="4">
+        <v>19</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="18">
+      <c r="A61" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4">
         <v>3</v>
       </c>
-      <c r="D58" s="4">
-        <v>112</v>
-      </c>
-      <c r="E58" s="4">
-        <v>336</v>
-      </c>
-      <c r="F58" s="4" t="s">
+      <c r="D61" s="4">
+        <v>240</v>
+      </c>
+      <c r="E61">
+        <f>B61*D61</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="4">
+        <v>19</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G58" s="4">
-        <v>19</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="4">
-        <v>0</v>
-      </c>
-      <c r="C59" s="4">
-        <v>0</v>
-      </c>
-      <c r="D59" s="4">
-        <v>225</v>
-      </c>
-      <c r="E59" s="4">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G59" s="4">
-        <v>19</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="4">
-        <v>0</v>
-      </c>
-      <c r="C60" s="4">
-        <v>11</v>
-      </c>
-      <c r="D60" s="4">
-        <v>80</v>
-      </c>
-      <c r="E60" s="4">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G60" s="4">
-        <v>19</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" s="4">
-        <v>2</v>
-      </c>
-      <c r="C61" s="4">
-        <v>1</v>
-      </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G61" s="4">
-        <v>19</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I61" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4">
-        <v>80</v>
-      </c>
-      <c r="E62" s="4">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" s="4">
-        <v>19</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4">
-        <v>125</v>
-      </c>
-      <c r="E63" s="4">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G63" s="4">
-        <v>19</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="4">
-        <v>0</v>
-      </c>
-      <c r="C64" s="4">
-        <v>0</v>
-      </c>
-      <c r="D64" s="4">
-        <v>127</v>
-      </c>
-      <c r="E64" s="4">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G64" s="4">
-        <v>19</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" s="4">
-        <v>0</v>
-      </c>
-      <c r="C65" s="4">
-        <v>0</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G65" s="4">
-        <v>19</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="18">
-      <c r="A66" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" s="4">
-        <v>0</v>
-      </c>
-      <c r="C66" s="4">
-        <v>0</v>
-      </c>
-      <c r="D66" s="4">
-        <v>30</v>
-      </c>
-      <c r="E66" s="4">
-        <v>0</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G66" s="4">
-        <v>19</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="18">
-      <c r="A67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="4">
-        <v>0</v>
-      </c>
-      <c r="C67" s="4">
-        <v>0</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G67" s="4">
-        <v>19</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="18">
-      <c r="A68" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B68" s="4">
-        <v>0</v>
-      </c>
-      <c r="C68" s="4">
-        <v>0</v>
-      </c>
-      <c r="D68" s="4">
-        <v>48</v>
-      </c>
-      <c r="E68" s="4">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G68" s="4">
-        <v>19</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="18">
-      <c r="A69" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" s="4">
-        <v>0</v>
-      </c>
-      <c r="C69" s="4">
-        <v>0</v>
-      </c>
-      <c r="D69" s="4">
-        <v>170</v>
-      </c>
-      <c r="E69" s="4">
-        <v>0</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" s="4">
-        <v>19</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="18">
-      <c r="A70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="4">
-        <v>0</v>
-      </c>
-      <c r="C70" s="4">
-        <v>0</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G70" s="4">
-        <v>19</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="18">
-      <c r="A71" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B71" s="5">
-        <v>0</v>
-      </c>
-      <c r="C71" s="5">
-        <v>3</v>
-      </c>
-      <c r="D71" s="4">
-        <v>240</v>
-      </c>
-      <c r="E71">
-        <f>B71*D71</f>
-        <v>0</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G71" s="4">
-        <v>19</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
